--- a/Sufficient data WITH_PO/B09L9DY4L1_Optuna_PO_Forecast.xlsx
+++ b/Sufficient data WITH_PO/B09L9DY4L1_Optuna_PO_Forecast.xlsx
@@ -454,7 +454,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -494,7 +494,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -590,7 +590,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -614,7 +614,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -654,7 +654,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31">
@@ -694,7 +694,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
